--- a/biology/Biologie cellulaire et moléculaire/Sens_5'_vers_3'/Sens_5'_vers_3'.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Sens_5'_vers_3'/Sens_5'_vers_3'.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sens_5%27_vers_3%27</t>
+          <t>Sens_5'_vers_3'</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le sens 5′ vers 3′ est le sens de synthèse des acides nucléiques — ADN ou ARN — par une ADN polymérase ou une ARN polymérase.
-Par convention, on oriente le brin d'acide nucléique de gauche à droite en fonction des groupes libres sur les nucléotides localisés à chaque extrémité (5′ ou 3′)[1].
+Par convention, on oriente le brin d'acide nucléique de gauche à droite en fonction des groupes libres sur les nucléotides localisés à chaque extrémité (5′ ou 3′).
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Sens_5%27_vers_3%27</t>
+          <t>Sens_5'_vers_3'</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Les nucléotides</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les brins d'acides nucléiques (ADN et d'ARN) sont des polymères formés d'assemblage de résidus nucléotidiques.
 Les quatre différentes sortes de nucléotides comprennent chacune un pentose (sucre à 5 atomes de carbone) : le ribose pour l'ARN et le désoxyribose pour l'ADN. Les atomes de carbone sont numérotés de 1′ à 5′. Une base nucléique se lie au carbone 1′ du pentose, un groupe phosphate au carbone 5′.
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Sens_5%27_vers_3%27</t>
+          <t>Sens_5'_vers_3'</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Les bases nucléiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Les bases nucléiques, qui existent dans les acides nucléiques (ADN et ARN) de tous les êtres vivants, sont l'adénine, la cytosine, la guanine, la thymine et l'uracile.
 La thymine est présente dans l'ADN, mais absente dans l'ARN. L'uracile est présent dans l'ARN, absent dans l'ADN.
@@ -562,7 +578,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Sens_5%27_vers_3%27</t>
+          <t>Sens_5'_vers_3'</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -580,7 +596,9 @@
           <t>Extrémité 3′</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Pour une séquence d'ADN, l'extrémité 3′ (ou 3′-OH) désigne l'extrémité de la séquence polynucléotidique terminée par un ose (ribose ou désoxyribose), et notamment par un groupement hydroxyle OH porté par le carbone 3′ du sucre.
 Le nom 3′ (lu « trois prime ») vient de la numérotation du carbone portant le OH : les atomes des cycles des bases nucléiques sont notés de 1 à 6 (pour les bases pyrimidiques) ou de 1 à 9 (pour les bases puriques), et les carbones de l'ose sont notés de 1′ à 5′ pour éviter la confusion avec la base nucléique.
@@ -594,7 +612,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Sens_5%27_vers_3%27</t>
+          <t>Sens_5'_vers_3'</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -612,7 +630,9 @@
           <t>Extrémité 5′</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Pour une séquence d'ADN, le côté 5′ (ou 5′-P) désigne l'extrémité de la séquence polynucléotidique terminée par un phosphate.
 </t>
@@ -625,7 +645,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Sens_5%27_vers_3%27</t>
+          <t>Sens_5'_vers_3'</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -643,7 +663,9 @@
           <t>L'orientation des brins</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">L'assemblage des nucléotides, qui s'effectue à l'aide de leur sucre, est orienté.
 Une molécule de phosphate relie le carbone 3′ du premier sucre au carbone 5′ du sucre suivant, qui lui-même associe son carbone 3′, à travers une molécule de phosphate, au carbone 5′ du sucre suivant, et ainsi de suite de proche en proche. Cela détermine ainsi une chaîne orientée de nucléotides où l'on peut déterminer l'extrémité 3′ du brin et l'extrémité 5′ à l'opposé.
